--- a/kelimeler.xlsx
+++ b/kelimeler.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berke\Desktop\Software\Word_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berke\Desktop\Software\word-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED41B77A-786F-47D1-BA72-35956F2FCF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC25BF46-189B-470B-8ED7-1AB57DD429AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -226,33 +226,6 @@
     <t>işsiz</t>
   </si>
   <si>
-    <t>stay = kalmak</t>
-  </si>
-  <si>
-    <t>chair = sandalye</t>
-  </si>
-  <si>
-    <t>wear = giyinmek</t>
-  </si>
-  <si>
-    <t>weat a hat = şapka takmak</t>
-  </si>
-  <si>
-    <t>lough = gülmek</t>
-  </si>
-  <si>
-    <t>floor = zemin</t>
-  </si>
-  <si>
-    <t>coat = palto</t>
-  </si>
-  <si>
-    <t>turn it of = kapatmak</t>
-  </si>
-  <si>
-    <t>city-cities</t>
-  </si>
-  <si>
     <t>nehir</t>
   </si>
   <si>
@@ -361,9 +334,6 @@
     <t>rakip</t>
   </si>
   <si>
-    <t>şehir-şehirler</t>
-  </si>
-  <si>
     <t xml:space="preserve">not at the moment </t>
   </si>
   <si>
@@ -376,12 +346,6 @@
     <t xml:space="preserve">gear </t>
   </si>
   <si>
-    <t xml:space="preserve">Easter </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somebody </t>
-  </si>
-  <si>
     <t xml:space="preserve">things </t>
   </si>
   <si>
@@ -557,6 +521,42 @@
   </si>
   <si>
     <t>anlamlar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">somebody </t>
+  </si>
+  <si>
+    <t xml:space="preserve">easter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chair </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">weat a hat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lough </t>
+  </si>
+  <si>
+    <t xml:space="preserve">floor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">coat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn it of </t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>şehir</t>
   </si>
 </sst>
 </file>
@@ -924,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,10 +937,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1217,442 +1217,442 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>69</v>
+        <v>170</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B53" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B55" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B56" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B57" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B59" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B61" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B63" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B64" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B65" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B66" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B67" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B69" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B70" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B71" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B75" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B76" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B77" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B78" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B79" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B81" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B82" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B84" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B85" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B87" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B88" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B89" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B90" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
